--- a/soberano/test_cases/process_disable_test_cases.xlsx
+++ b/soberano/test_cases/process_disable_test_cases.xlsx
@@ -28,7 +28,7 @@
     <t xml:space="preserve">Notes \ Field</t>
   </si>
   <si>
-    <t xml:space="preserve">User1 is allowed to disable process mpr1</t>
+    <t xml:space="preserve">User1 is allowed to disable process mpr10</t>
   </si>
   <si>
     <t xml:space="preserve">User2 is NOT allowed to disable process mpr2</t>
@@ -161,7 +161,7 @@
   <dimension ref="A1:AMJ5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
